--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2019_AcidDigestions_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2019_AcidDigestions_EDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/Virginia Tech/Sed Traps/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261478B3-99C5-3746-862D-B0A6C6CBA74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEDBC41-E345-C045-96A1-579E7E9B26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{249630D6-5FA9-4A4A-A46B-7F4357E0D37E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15600" windowHeight="17800" xr2:uid="{249630D6-5FA9-4A4A-A46B-7F4357E0D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,18 +400,6 @@
     <t>B_sed_10m_R2_F1_11Jul19</t>
   </si>
   <si>
-    <t>B_sed_5m_R2_F2_25Jul19_soapy</t>
-  </si>
-  <si>
-    <t>B_sed_5m_R2_F2_25Jul19_redone</t>
-  </si>
-  <si>
-    <t>B_sed_10m_R2_F1_25Jul19_soapy</t>
-  </si>
-  <si>
-    <t>B_sed_10m_R2_F1_25Jul19_redone</t>
-  </si>
-  <si>
     <t>Sample #</t>
   </si>
   <si>
@@ -923,6 +911,18 @@
   </si>
   <si>
     <t>7_29Apr19</t>
+  </si>
+  <si>
+    <t>B_sed_5m_R2_F5_25Jul19</t>
+  </si>
+  <si>
+    <t>B_sed_5m_R2_F2_25Jul19</t>
+  </si>
+  <si>
+    <t>B_sed_10m_R2_F1_25Jul19</t>
+  </si>
+  <si>
+    <t>B_sed_10m_R2_F5_25Jul19</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,28 +1383,28 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -1416,12 +1416,12 @@
         <v>19</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>82</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>84</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>86</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>92</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>93</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>94</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3">
@@ -2028,7 +2028,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>100</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>102</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>104</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>106</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>108</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>110</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>112</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>114</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>116</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>118</v>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="D28" s="3">
         <v>27</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="D29" s="3">
         <v>28</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>79</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>80</v>
@@ -2549,13 +2549,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -2588,13 +2588,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
@@ -2703,13 +2703,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D36" s="3">
         <v>5</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D37" s="3">
         <v>6</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>32</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>34</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>36</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>38</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -3011,13 +3011,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D44" s="3">
         <v>13</v>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D45" s="3">
         <v>14</v>
@@ -3088,13 +3088,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D46" s="3">
         <v>15</v>
@@ -3124,13 +3124,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D47" s="3">
         <v>16</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>54</v>
@@ -3229,13 +3229,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D50" s="3">
         <v>19</v>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D51" s="3">
         <v>20</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>60</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>62</v>
@@ -3371,13 +3371,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D54" s="3">
         <v>23</v>
@@ -3407,13 +3407,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D55" s="3">
         <v>24</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>68</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>70</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>72</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>74</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>76</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>77</v>
@@ -3887,28 +3887,28 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -3920,7 +3920,7 @@
         <v>19</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3955,7 +3955,7 @@
         <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -3970,57 +3970,57 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>136</v>
-      </c>
-      <c r="V1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4828,7 +4828,7 @@
         <v>43682</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4854,7 +4854,7 @@
         <v>43682</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -4880,7 +4880,7 @@
         <v>43696</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -4906,7 +4906,7 @@
         <v>43696</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -4932,7 +4932,7 @@
         <v>43710</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -4958,7 +4958,7 @@
         <v>43710</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -4984,7 +4984,7 @@
         <v>43735</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5010,7 +5010,7 @@
         <v>43735</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -5036,7 +5036,7 @@
         <v>43735</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>9</v>
@@ -5062,7 +5062,7 @@
         <v>43735</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -5088,7 +5088,7 @@
         <v>43749</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -5114,7 +5114,7 @@
         <v>43749</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C48">
         <v>12</v>
@@ -5140,7 +5140,7 @@
         <v>43749</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C49">
         <v>13</v>
@@ -5166,7 +5166,7 @@
         <v>43749</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C50">
         <v>14</v>
@@ -5192,7 +5192,7 @@
         <v>43761</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -5218,7 +5218,7 @@
         <v>43761</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C52">
         <v>16</v>
@@ -5244,7 +5244,7 @@
         <v>43761</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C53">
         <v>17</v>
@@ -5270,7 +5270,7 @@
         <v>43761</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C54">
         <v>18</v>
@@ -5296,7 +5296,7 @@
         <v>43777</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C55">
         <v>19</v>
@@ -5322,7 +5322,7 @@
         <v>43777</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C56">
         <v>20</v>
@@ -5348,7 +5348,7 @@
         <v>43777</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C57">
         <v>21</v>
@@ -5374,7 +5374,7 @@
         <v>43777</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C58">
         <v>22</v>
@@ -5400,7 +5400,7 @@
         <v>43685</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C59">
         <v>23</v>
@@ -5426,7 +5426,7 @@
         <v>43685</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C60">
         <v>24</v>
@@ -5452,7 +5452,7 @@
         <v>43685</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C61">
         <v>25</v>
@@ -5478,7 +5478,7 @@
         <v>43685</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C62">
         <v>26</v>
@@ -5504,7 +5504,7 @@
         <v>43699</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C63">
         <v>27</v>
@@ -5530,7 +5530,7 @@
         <v>43699</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C64">
         <v>28</v>
@@ -5743,7 +5743,7 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -7119,22 +7119,150 @@
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E46:E47"/>
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
@@ -7159,150 +7287,22 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E58:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2019_AcidDigestions_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2019_AcidDigestions_EDI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEDBC41-E345-C045-96A1-579E7E9B26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2AA674-EEB8-1440-9000-4123E0012D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15600" windowHeight="17800" xr2:uid="{249630D6-5FA9-4A4A-A46B-7F4357E0D37E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15600" windowHeight="17780" xr2:uid="{249630D6-5FA9-4A4A-A46B-7F4357E0D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,9 +655,6 @@
     <t>F_sed_8m_R1_F1_08Jul19</t>
   </si>
   <si>
-    <t>F_sed_4m_R1_F1_05Aug19</t>
-  </si>
-  <si>
     <t>F_sed_4m_R2_F2_05Aug19</t>
   </si>
   <si>
@@ -923,6 +920,9 @@
   </si>
   <si>
     <t>B_sed_10m_R2_F5_25Jul19</t>
+  </si>
+  <si>
+    <t>F_sed_4m_R1_F2_05Aug19</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>82</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>84</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>86</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>88</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>92</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>93</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>94</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>137</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>100</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>102</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>104</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>106</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>108</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>110</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>112</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>114</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>116</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>118</v>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="D28" s="3">
         <v>27</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D29" s="3">
         <v>28</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>79</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>80</v>
@@ -2549,13 +2549,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -2588,13 +2588,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
@@ -2703,13 +2703,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D36" s="3">
         <v>5</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D37" s="3">
         <v>6</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>32</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>34</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>36</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>38</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -3011,13 +3011,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D44" s="3">
         <v>13</v>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D45" s="3">
         <v>14</v>
@@ -3088,13 +3088,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D46" s="3">
         <v>15</v>
@@ -3124,13 +3124,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D47" s="3">
         <v>16</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>54</v>
@@ -3229,13 +3229,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D50" s="3">
         <v>19</v>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D51" s="3">
         <v>20</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>60</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>62</v>
@@ -3371,13 +3371,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D54" s="3">
         <v>23</v>
@@ -3407,13 +3407,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D55" s="3">
         <v>24</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>68</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>70</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>72</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>74</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>76</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>77</v>
@@ -7119,150 +7119,22 @@
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
@@ -7287,22 +7159,150 @@
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="E50:E51"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
